--- a/results/mp/logistic/corona/confidence/210/stop-words-masking-0.5/avg_0.003_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/210/stop-words-masking-0.5/avg_0.003_scores.xlsx
@@ -46,46 +46,58 @@
     <t>crisis</t>
   </si>
   <si>
+    <t>forced</t>
+  </si>
+  <si>
+    <t>collapse</t>
+  </si>
+  <si>
     <t>war</t>
   </si>
   <si>
+    <t>die</t>
+  </si>
+  <si>
     <t>fraud</t>
   </si>
   <si>
-    <t>died</t>
-  </si>
-  <si>
-    <t>collapse</t>
-  </si>
-  <si>
-    <t>forced</t>
-  </si>
-  <si>
-    <t>die</t>
+    <t>problem</t>
+  </si>
+  <si>
+    <t>falling</t>
+  </si>
+  <si>
+    <t>sc</t>
+  </si>
+  <si>
+    <t>panic</t>
+  </si>
+  <si>
+    <t>fears</t>
   </si>
   <si>
     <t>drop</t>
   </si>
   <si>
-    <t>falling</t>
-  </si>
-  <si>
-    <t>panic</t>
-  </si>
-  <si>
-    <t>sc</t>
+    <t>shame</t>
   </si>
   <si>
     <t>fuck</t>
   </si>
   <si>
-    <t>selfish</t>
+    <t>shit</t>
   </si>
   <si>
     <t>low</t>
   </si>
   <si>
-    <t>shit</t>
+    <t>lower</t>
+  </si>
+  <si>
+    <t>empty</t>
+  </si>
+  <si>
+    <t>emergency</t>
   </si>
   <si>
     <t>cut</t>
@@ -94,18 +106,6 @@
     <t>avoid</t>
   </si>
   <si>
-    <t>fears</t>
-  </si>
-  <si>
-    <t>emergency</t>
-  </si>
-  <si>
-    <t>lower</t>
-  </si>
-  <si>
-    <t>empty</t>
-  </si>
-  <si>
     <t>risk</t>
   </si>
   <si>
@@ -121,9 +121,6 @@
     <t>oil</t>
   </si>
   <si>
-    <t>due</t>
-  </si>
-  <si>
     <t>buying</t>
   </si>
   <si>
@@ -145,142 +142,151 @@
     <t>negative</t>
   </si>
   <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
     <t>best</t>
   </si>
   <si>
-    <t>love</t>
-  </si>
-  <si>
     <t>free</t>
   </si>
   <si>
-    <t>happy</t>
-  </si>
-  <si>
     <t>great</t>
   </si>
   <si>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
     <t>special</t>
   </si>
   <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>interesting</t>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>better</t>
   </si>
   <si>
     <t>thanks</t>
   </si>
   <si>
-    <t>safe</t>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>ready</t>
+  </si>
+  <si>
+    <t>friends</t>
   </si>
   <si>
     <t>join</t>
   </si>
   <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>growth</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
     <t>gt</t>
   </si>
   <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
     <t>save</t>
   </si>
   <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
     <t>relief</t>
   </si>
   <si>
     <t>giving</t>
   </si>
   <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>like</t>
+    <t>important</t>
+  </si>
+  <si>
+    <t>care</t>
   </si>
   <si>
     <t>safety</t>
   </si>
   <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>important</t>
-  </si>
-  <si>
     <t>alert</t>
   </si>
   <si>
     <t>protect</t>
   </si>
   <si>
+    <t>increase</t>
+  </si>
+  <si>
     <t>give</t>
   </si>
   <si>
+    <t>sure</t>
+  </si>
+  <si>
     <t>data</t>
   </si>
   <si>
-    <t>sure</t>
-  </si>
-  <si>
-    <t>increase</t>
-  </si>
-  <si>
     <t>helping</t>
   </si>
   <si>
+    <t>check</t>
+  </si>
+  <si>
     <t>keep</t>
   </si>
   <si>
-    <t>check</t>
+    <t>shop</t>
   </si>
   <si>
     <t>day</t>
   </si>
   <si>
-    <t>shop</t>
+    <t>local</t>
+  </si>
+  <si>
+    <t>shopping</t>
   </si>
   <si>
     <t>stay</t>
@@ -289,19 +295,13 @@
     <t>amp</t>
   </si>
   <si>
-    <t>shopping</t>
+    <t>need</t>
   </si>
   <si>
     <t>consumer</t>
   </si>
   <si>
     <t>grocery</t>
-  </si>
-  <si>
-    <t>store</t>
-  </si>
-  <si>
-    <t>food</t>
   </si>
 </sst>
 </file>
@@ -659,7 +659,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q58"/>
+  <dimension ref="A1:Q59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -667,10 +667,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -728,13 +728,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.8235294117647058</v>
+        <v>0.8529411764705882</v>
       </c>
       <c r="C3">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D3">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -746,19 +746,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K3">
+        <v>0.9347826086956522</v>
+      </c>
+      <c r="L3">
         <v>43</v>
       </c>
-      <c r="K3">
-        <v>0.9491525423728814</v>
-      </c>
-      <c r="L3">
-        <v>56</v>
-      </c>
       <c r="M3">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -778,13 +778,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.821917808219178</v>
+        <v>0.8184931506849316</v>
       </c>
       <c r="C4">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D4">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -796,19 +796,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K4">
-        <v>0.9347826086956522</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="L4">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="M4">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -820,7 +820,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -828,13 +828,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.8157894736842105</v>
+        <v>0.7931034482758621</v>
       </c>
       <c r="C5">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="D5">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -846,19 +846,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K5">
-        <v>0.9083333333333333</v>
+        <v>0.9152542372881356</v>
       </c>
       <c r="L5">
-        <v>109</v>
+        <v>54</v>
       </c>
       <c r="M5">
-        <v>109</v>
+        <v>54</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -870,7 +870,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -878,13 +878,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.7777777777777778</v>
+        <v>0.7666666666666667</v>
       </c>
       <c r="C6">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D6">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -896,19 +896,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K6">
-        <v>0.8846153846153846</v>
+        <v>0.9</v>
       </c>
       <c r="L6">
-        <v>23</v>
+        <v>108</v>
       </c>
       <c r="M6">
-        <v>23</v>
+        <v>108</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -920,7 +920,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -928,13 +928,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.7692307692307693</v>
+        <v>0.7631578947368421</v>
       </c>
       <c r="C7">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D7">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -946,10 +946,10 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K7">
         <v>0.875</v>
@@ -978,13 +978,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.7666666666666667</v>
+        <v>0.7297297297297297</v>
       </c>
       <c r="C8">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D8">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -996,19 +996,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K8">
-        <v>0.8611111111111112</v>
+        <v>0.8636363636363636</v>
       </c>
       <c r="L8">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="M8">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1028,13 +1028,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.7586206896551724</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="C9">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D9">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1046,31 +1046,31 @@
         <v>0</v>
       </c>
       <c r="H9">
+        <v>10</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K9">
+        <v>0.851063829787234</v>
+      </c>
+      <c r="L9">
+        <v>40</v>
+      </c>
+      <c r="M9">
+        <v>40</v>
+      </c>
+      <c r="N9">
+        <v>1</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q9">
         <v>7</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="K9">
-        <v>0.8448275862068966</v>
-      </c>
-      <c r="L9">
-        <v>49</v>
-      </c>
-      <c r="M9">
-        <v>49</v>
-      </c>
-      <c r="N9">
-        <v>1</v>
-      </c>
-      <c r="O9">
-        <v>0</v>
-      </c>
-      <c r="P9" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q9">
-        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1078,13 +1078,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.7297297297297297</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C10">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="D10">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1099,16 +1099,16 @@
         <v>10</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K10">
-        <v>0.8433420365535248</v>
+        <v>0.8407310704960835</v>
       </c>
       <c r="L10">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="M10">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1120,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1128,13 +1128,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.6271186440677966</v>
+        <v>0.625</v>
       </c>
       <c r="C11">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="D11">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1146,19 +1146,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K11">
-        <v>0.8297872340425532</v>
+        <v>0.8359375</v>
       </c>
       <c r="L11">
-        <v>39</v>
+        <v>107</v>
       </c>
       <c r="M11">
-        <v>39</v>
+        <v>107</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1170,7 +1170,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>8</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1178,13 +1178,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.6</v>
+        <v>0.5978835978835979</v>
       </c>
       <c r="C12">
-        <v>24</v>
+        <v>113</v>
       </c>
       <c r="D12">
-        <v>24</v>
+        <v>113</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1196,31 +1196,31 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>16</v>
+        <v>76</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K12">
-        <v>0.8181818181818182</v>
+        <v>0.83125</v>
       </c>
       <c r="L12">
+        <v>133</v>
+      </c>
+      <c r="M12">
+        <v>133</v>
+      </c>
+      <c r="N12">
+        <v>1</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q12">
         <v>27</v>
-      </c>
-      <c r="M12">
-        <v>27</v>
-      </c>
-      <c r="N12">
-        <v>1</v>
-      </c>
-      <c r="O12">
-        <v>0</v>
-      </c>
-      <c r="P12" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q12">
-        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1228,13 +1228,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.5949612403100775</v>
+        <v>0.5717054263565892</v>
       </c>
       <c r="C13">
-        <v>307</v>
+        <v>295</v>
       </c>
       <c r="D13">
-        <v>307</v>
+        <v>295</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1246,19 +1246,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>209</v>
+        <v>221</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K13">
-        <v>0.8170731707317073</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="L13">
-        <v>67</v>
+        <v>27</v>
       </c>
       <c r="M13">
-        <v>67</v>
+        <v>27</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1270,7 +1270,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>15</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1278,13 +1278,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.5767195767195767</v>
+        <v>0.5686274509803921</v>
       </c>
       <c r="C14">
-        <v>109</v>
+        <v>29</v>
       </c>
       <c r="D14">
-        <v>109</v>
+        <v>29</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1296,19 +1296,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>80</v>
+        <v>22</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K14">
-        <v>0.8169014084507042</v>
+        <v>0.7931034482758621</v>
       </c>
       <c r="L14">
-        <v>116</v>
+        <v>46</v>
       </c>
       <c r="M14">
-        <v>116</v>
+        <v>46</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1320,7 +1320,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1328,13 +1328,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.5384615384615384</v>
+        <v>0.559322033898305</v>
       </c>
       <c r="C15">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="D15">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1346,19 +1346,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K15">
-        <v>0.813953488372093</v>
+        <v>0.7924528301886793</v>
       </c>
       <c r="L15">
-        <v>35</v>
+        <v>84</v>
       </c>
       <c r="M15">
-        <v>35</v>
+        <v>84</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1370,7 +1370,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>8</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1378,13 +1378,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.5277777777777778</v>
+        <v>0.5405405405405406</v>
       </c>
       <c r="C16">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D16">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1399,16 +1399,16 @@
         <v>17</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K16">
-        <v>0.80625</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L16">
-        <v>129</v>
+        <v>28</v>
       </c>
       <c r="M16">
-        <v>129</v>
+        <v>28</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>31</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1428,13 +1428,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.5033557046979866</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="C17">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="D17">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1446,19 +1446,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>74</v>
+        <v>18</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K17">
-        <v>0.8055555555555556</v>
+        <v>0.7746478873239436</v>
       </c>
       <c r="L17">
-        <v>29</v>
+        <v>110</v>
       </c>
       <c r="M17">
-        <v>29</v>
+        <v>110</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1470,7 +1470,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>7</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1478,37 +1478,37 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.4871794871794872</v>
+        <v>0.5128205128205128</v>
       </c>
       <c r="C18">
+        <v>20</v>
+      </c>
+      <c r="D18">
+        <v>20</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18" t="b">
+        <v>0</v>
+      </c>
+      <c r="H18">
         <v>19</v>
       </c>
-      <c r="D18">
-        <v>19</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-      <c r="G18" t="b">
-        <v>0</v>
-      </c>
-      <c r="H18">
-        <v>20</v>
-      </c>
       <c r="J18" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K18">
-        <v>0.796875</v>
+        <v>0.7708333333333334</v>
       </c>
       <c r="L18">
-        <v>102</v>
+        <v>37</v>
       </c>
       <c r="M18">
-        <v>102</v>
+        <v>37</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1520,7 +1520,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>26</v>
+        <v>11</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1528,13 +1528,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.4727272727272727</v>
+        <v>0.4899328859060403</v>
       </c>
       <c r="C19">
-        <v>26</v>
+        <v>73</v>
       </c>
       <c r="D19">
-        <v>26</v>
+        <v>73</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1546,19 +1546,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>29</v>
+        <v>76</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K19">
-        <v>0.7924528301886793</v>
+        <v>0.7619047619047619</v>
       </c>
       <c r="L19">
-        <v>84</v>
+        <v>48</v>
       </c>
       <c r="M19">
-        <v>84</v>
+        <v>48</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1570,7 +1570,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1578,13 +1578,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.4727272727272727</v>
+        <v>0.4464285714285715</v>
       </c>
       <c r="C20">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D20">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1596,31 +1596,31 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K20">
-        <v>0.7903225806451613</v>
+        <v>0.7560975609756098</v>
       </c>
       <c r="L20">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="M20">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="N20">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O20">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q20">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1628,13 +1628,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.4705882352941176</v>
+        <v>0.4333333333333333</v>
       </c>
       <c r="C21">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="D21">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1646,19 +1646,19 @@
         <v>0</v>
       </c>
       <c r="H21">
+        <v>51</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K21">
+        <v>0.75</v>
+      </c>
+      <c r="L21">
         <v>27</v>
       </c>
-      <c r="J21" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="K21">
-        <v>0.7857142857142857</v>
-      </c>
-      <c r="L21">
-        <v>22</v>
-      </c>
       <c r="M21">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1670,7 +1670,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1678,13 +1678,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.4533333333333333</v>
+        <v>0.4266666666666667</v>
       </c>
       <c r="C22">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D22">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1696,10 +1696,10 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K22">
         <v>0.7407407407407407</v>
@@ -1728,13 +1728,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.4285714285714285</v>
+        <v>0.4181818181818182</v>
       </c>
       <c r="C23">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D23">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1749,7 +1749,7 @@
         <v>32</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K23">
         <v>0.7142857142857143</v>
@@ -1781,10 +1781,10 @@
         <v>0.4</v>
       </c>
       <c r="C24">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="D24">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1796,19 +1796,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>54</v>
+        <v>33</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K24">
-        <v>0.7083333333333334</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L24">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="M24">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1820,7 +1820,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1849,16 +1849,16 @@
         <v>52</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K25">
-        <v>0.7</v>
+        <v>0.6976744186046512</v>
       </c>
       <c r="L25">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M25">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1870,7 +1870,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1878,13 +1878,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.3214285714285715</v>
+        <v>0.3134920634920635</v>
       </c>
       <c r="C26">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D26">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1896,19 +1896,19 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K26">
-        <v>0.6857142857142857</v>
+        <v>0.675</v>
       </c>
       <c r="L26">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="M26">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1920,7 +1920,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1928,13 +1928,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.3</v>
+        <v>0.2875</v>
       </c>
       <c r="C27">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D27">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1946,19 +1946,19 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K27">
-        <v>0.68</v>
+        <v>0.6647058823529411</v>
       </c>
       <c r="L27">
-        <v>34</v>
+        <v>226</v>
       </c>
       <c r="M27">
-        <v>34</v>
+        <v>226</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>16</v>
+        <v>114</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1978,37 +1978,37 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.228494623655914</v>
+        <v>0.2332439678284182</v>
       </c>
       <c r="C28">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D28">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E28">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="F28">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="G28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H28">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K28">
-        <v>0.6666666666666666</v>
+        <v>0.6595744680851063</v>
       </c>
       <c r="L28">
-        <v>22</v>
+        <v>62</v>
       </c>
       <c r="M28">
-        <v>22</v>
+        <v>62</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -2020,7 +2020,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>11</v>
+        <v>32</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2049,16 +2049,16 @@
         <v>262</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K29">
-        <v>0.6615384615384615</v>
+        <v>0.6571428571428571</v>
       </c>
       <c r="L29">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="M29">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -2070,7 +2070,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2078,37 +2078,37 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.08936170212765958</v>
+        <v>0.09246575342465753</v>
       </c>
       <c r="C30">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="D30">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="E30">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="F30">
-        <v>0.95</v>
+        <v>0.96</v>
       </c>
       <c r="G30" t="b">
         <v>1</v>
       </c>
       <c r="H30">
-        <v>214</v>
+        <v>265</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K30">
-        <v>0.6558823529411765</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="L30">
-        <v>223</v>
+        <v>45</v>
       </c>
       <c r="M30">
-        <v>223</v>
+        <v>45</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -2120,7 +2120,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>117</v>
+        <v>25</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2128,49 +2128,49 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.08191126279863481</v>
+        <v>0.04257167680278019</v>
       </c>
       <c r="C31">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="D31">
-        <v>24</v>
+        <v>59</v>
       </c>
       <c r="E31">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="F31">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="G31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H31">
-        <v>269</v>
+        <v>1102</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K31">
-        <v>0.6470588235294118</v>
+        <v>0.6292517006802721</v>
       </c>
       <c r="L31">
-        <v>33</v>
+        <v>185</v>
       </c>
       <c r="M31">
-        <v>33</v>
+        <v>186</v>
       </c>
       <c r="N31">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O31">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q31">
-        <v>18</v>
+        <v>109</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2178,49 +2178,49 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.03979238754325259</v>
+        <v>0.03371150729335495</v>
       </c>
       <c r="C32">
-        <v>46</v>
+        <v>104</v>
       </c>
       <c r="D32">
-        <v>51</v>
+        <v>126</v>
       </c>
       <c r="E32">
-        <v>0.1</v>
+        <v>0.17</v>
       </c>
       <c r="F32">
-        <v>0.9</v>
+        <v>0.83</v>
       </c>
       <c r="G32" t="b">
         <v>1</v>
       </c>
       <c r="H32">
-        <v>1110</v>
+        <v>2981</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K32">
-        <v>0.6428571428571429</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="L32">
-        <v>189</v>
+        <v>40</v>
       </c>
       <c r="M32">
-        <v>190</v>
+        <v>40</v>
       </c>
       <c r="N32">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O32">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q32">
-        <v>105</v>
+        <v>25</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -2228,37 +2228,37 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.03763789746917586</v>
+        <v>0.02731983042863872</v>
       </c>
       <c r="C33">
-        <v>116</v>
+        <v>58</v>
       </c>
       <c r="D33">
-        <v>141</v>
+        <v>78</v>
       </c>
       <c r="E33">
-        <v>0.18</v>
+        <v>0.26</v>
       </c>
       <c r="F33">
-        <v>0.8200000000000001</v>
+        <v>0.74</v>
       </c>
       <c r="G33" t="b">
         <v>1</v>
       </c>
       <c r="H33">
-        <v>2966</v>
+        <v>2065</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K33">
-        <v>0.6401673640167364</v>
+        <v>0.5983263598326359</v>
       </c>
       <c r="L33">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="M33">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -2270,7 +2270,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>86</v>
+        <v>96</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -2278,37 +2278,37 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.03207547169811321</v>
+        <v>0.02325581395348837</v>
       </c>
       <c r="C34">
-        <v>68</v>
+        <v>20</v>
       </c>
       <c r="D34">
-        <v>91</v>
+        <v>27</v>
       </c>
       <c r="E34">
-        <v>0.25</v>
+        <v>0.26</v>
       </c>
       <c r="F34">
-        <v>0.75</v>
+        <v>0.74</v>
       </c>
       <c r="G34" t="b">
         <v>1</v>
       </c>
       <c r="H34">
-        <v>2052</v>
+        <v>840</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K34">
-        <v>0.6382978723404256</v>
+        <v>0.58</v>
       </c>
       <c r="L34">
-        <v>60</v>
+        <v>29</v>
       </c>
       <c r="M34">
-        <v>60</v>
+        <v>29</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -2320,7 +2320,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="35" spans="1:17">
@@ -2328,87 +2328,63 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.02564102564102564</v>
+        <v>0.008036001285760206</v>
       </c>
       <c r="C35">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D35">
-        <v>31</v>
+        <v>115</v>
       </c>
       <c r="E35">
-        <v>0.29</v>
+        <v>0.78</v>
       </c>
       <c r="F35">
-        <v>0.71</v>
+        <v>0.22</v>
       </c>
       <c r="G35" t="b">
         <v>1</v>
       </c>
       <c r="H35">
-        <v>836</v>
+        <v>3086</v>
       </c>
       <c r="J35" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="K35">
+        <v>0.5757575757575758</v>
+      </c>
+      <c r="L35">
+        <v>19</v>
+      </c>
+      <c r="M35">
+        <v>19</v>
+      </c>
+      <c r="N35">
+        <v>1</v>
+      </c>
+      <c r="O35">
+        <v>0</v>
+      </c>
+      <c r="P35" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q35">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17">
+      <c r="J36" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="K35">
-        <v>0.6285714285714286</v>
-      </c>
-      <c r="L35">
-        <v>44</v>
-      </c>
-      <c r="M35">
-        <v>44</v>
-      </c>
-      <c r="N35">
-        <v>1</v>
-      </c>
-      <c r="O35">
-        <v>0</v>
-      </c>
-      <c r="P35" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q35">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17">
-      <c r="A36" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B36">
-        <v>0.00966183574879227</v>
-      </c>
-      <c r="C36">
-        <v>30</v>
-      </c>
-      <c r="D36">
-        <v>126</v>
-      </c>
-      <c r="E36">
-        <v>0.76</v>
-      </c>
-      <c r="F36">
-        <v>0.24</v>
-      </c>
-      <c r="G36" t="b">
-        <v>1</v>
-      </c>
-      <c r="H36">
-        <v>3075</v>
-      </c>
-      <c r="J36" s="1" t="s">
-        <v>76</v>
-      </c>
       <c r="K36">
-        <v>0.6067415730337079</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="L36">
-        <v>54</v>
+        <v>25</v>
       </c>
       <c r="M36">
-        <v>54</v>
+        <v>25</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -2420,21 +2396,21 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>35</v>
+        <v>20</v>
       </c>
     </row>
     <row r="37" spans="1:17">
       <c r="J37" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K37">
-        <v>0.6</v>
+        <v>0.5393258426966292</v>
       </c>
       <c r="L37">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="M37">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -2446,21 +2422,21 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>18</v>
+        <v>41</v>
       </c>
     </row>
     <row r="38" spans="1:17">
       <c r="J38" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K38">
-        <v>0.5</v>
+        <v>0.5098039215686274</v>
       </c>
       <c r="L38">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="M38">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2472,21 +2448,21 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="39" spans="1:17">
       <c r="J39" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K39">
-        <v>0.4794520547945205</v>
+        <v>0.4761904761904762</v>
       </c>
       <c r="L39">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="M39">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -2498,21 +2474,21 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>38</v>
+        <v>22</v>
       </c>
     </row>
     <row r="40" spans="1:17">
       <c r="J40" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K40">
-        <v>0.459016393442623</v>
+        <v>0.4520547945205479</v>
       </c>
       <c r="L40">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="M40">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2524,21 +2500,21 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>33</v>
+        <v>40</v>
       </c>
     </row>
     <row r="41" spans="1:17">
       <c r="J41" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K41">
-        <v>0.4035087719298245</v>
+        <v>0.3974358974358974</v>
       </c>
       <c r="L41">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="M41">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2550,21 +2526,21 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>34</v>
+        <v>47</v>
       </c>
     </row>
     <row r="42" spans="1:17">
       <c r="J42" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K42">
-        <v>0.390625</v>
+        <v>0.3934426229508197</v>
       </c>
       <c r="L42">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M42">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2576,21 +2552,21 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="43" spans="1:17">
       <c r="J43" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K43">
-        <v>0.3846153846153846</v>
+        <v>0.359375</v>
       </c>
       <c r="L43">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="M43">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -2602,30 +2578,30 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>48</v>
+        <v>41</v>
       </c>
     </row>
     <row r="44" spans="1:17">
       <c r="J44" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K44">
-        <v>0.3728813559322034</v>
+        <v>0.3392857142857143</v>
       </c>
       <c r="L44">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="M44">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="N44">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="O44">
-        <v>0</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P44" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q44">
         <v>37</v>
@@ -2633,16 +2609,16 @@
     </row>
     <row r="45" spans="1:17">
       <c r="J45" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K45">
-        <v>0.2580645161290323</v>
+        <v>0.3220338983050847</v>
       </c>
       <c r="L45">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="M45">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -2654,99 +2630,99 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>92</v>
+        <v>40</v>
       </c>
     </row>
     <row r="46" spans="1:17">
       <c r="J46" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K46">
-        <v>0.2037037037037037</v>
+        <v>0.2169811320754717</v>
       </c>
       <c r="L46">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M46">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="N46">
-        <v>0.96</v>
+        <v>0.88</v>
       </c>
       <c r="O46">
-        <v>0.04000000000000004</v>
+        <v>0.12</v>
       </c>
       <c r="P46" t="b">
         <v>1</v>
       </c>
       <c r="Q46">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="47" spans="1:17">
       <c r="J47" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K47">
-        <v>0.1338028169014084</v>
+        <v>0.1612903225806452</v>
       </c>
       <c r="L47">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M47">
         <v>20</v>
       </c>
       <c r="N47">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O47">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P47" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q47">
-        <v>123</v>
+        <v>104</v>
       </c>
     </row>
     <row r="48" spans="1:17">
       <c r="J48" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K48">
-        <v>0.1311475409836066</v>
+        <v>0.1567567567567568</v>
       </c>
       <c r="L48">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="M48">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="N48">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="O48">
-        <v>0.07999999999999996</v>
+        <v>0</v>
       </c>
       <c r="P48" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q48">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K49">
-        <v>0.1038961038961039</v>
+        <v>0.1398601398601399</v>
       </c>
       <c r="L49">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="M49">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -2758,111 +2734,111 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>276</v>
+        <v>123</v>
       </c>
     </row>
     <row r="50" spans="10:17">
       <c r="J50" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K50">
-        <v>0.07758620689655173</v>
+        <v>0.1172839506172839</v>
       </c>
       <c r="L50">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="M50">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="N50">
-        <v>0.96</v>
+        <v>0.95</v>
       </c>
       <c r="O50">
-        <v>0.04000000000000004</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P50" t="b">
         <v>1</v>
       </c>
       <c r="Q50">
-        <v>321</v>
+        <v>143</v>
       </c>
     </row>
     <row r="51" spans="10:17">
       <c r="J51" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K51">
-        <v>0.0625</v>
+        <v>0.07228915662650602</v>
       </c>
       <c r="L51">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="M51">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="N51">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O51">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P51" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q51">
-        <v>390</v>
+        <v>385</v>
       </c>
     </row>
     <row r="52" spans="10:17">
       <c r="J52" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K52">
-        <v>0.0453125</v>
+        <v>0.06840390879478828</v>
       </c>
       <c r="L52">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="M52">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="N52">
-        <v>0.74</v>
+        <v>0.95</v>
       </c>
       <c r="O52">
-        <v>0.26</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P52" t="b">
         <v>1</v>
       </c>
       <c r="Q52">
-        <v>611</v>
+        <v>286</v>
       </c>
     </row>
     <row r="53" spans="10:17">
       <c r="J53" s="1" t="s">
-        <v>41</v>
+        <v>92</v>
       </c>
       <c r="K53">
-        <v>0.03027436140018921</v>
+        <v>0.06609195402298851</v>
       </c>
       <c r="L53">
-        <v>96</v>
+        <v>23</v>
       </c>
       <c r="M53">
-        <v>126</v>
+        <v>24</v>
       </c>
       <c r="N53">
-        <v>0.76</v>
+        <v>0.96</v>
       </c>
       <c r="O53">
-        <v>0.24</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P53" t="b">
         <v>1</v>
       </c>
       <c r="Q53">
-        <v>3075</v>
+        <v>325</v>
       </c>
     </row>
     <row r="54" spans="10:17">
@@ -2870,25 +2846,25 @@
         <v>93</v>
       </c>
       <c r="K54">
-        <v>0.02663706992230854</v>
+        <v>0.06597222222222222</v>
       </c>
       <c r="L54">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="M54">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="N54">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="O54">
-        <v>0</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q54">
-        <v>877</v>
+        <v>269</v>
       </c>
     </row>
     <row r="55" spans="10:17">
@@ -2896,25 +2872,25 @@
         <v>94</v>
       </c>
       <c r="K55">
-        <v>0.02359550561797753</v>
+        <v>0.0359375</v>
       </c>
       <c r="L55">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M55">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="N55">
-        <v>0.84</v>
+        <v>0.7</v>
       </c>
       <c r="O55">
-        <v>0.16</v>
+        <v>0.3</v>
       </c>
       <c r="P55" t="b">
         <v>1</v>
       </c>
       <c r="Q55">
-        <v>869</v>
+        <v>617</v>
       </c>
     </row>
     <row r="56" spans="10:17">
@@ -2922,51 +2898,51 @@
         <v>95</v>
       </c>
       <c r="K56">
-        <v>0.0208768267223382</v>
+        <v>0.03128491620111732</v>
       </c>
       <c r="L56">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="M56">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="N56">
-        <v>0.67</v>
+        <v>0.82</v>
       </c>
       <c r="O56">
-        <v>0.33</v>
+        <v>0.18</v>
       </c>
       <c r="P56" t="b">
         <v>1</v>
       </c>
       <c r="Q56">
-        <v>938</v>
+        <v>867</v>
       </c>
     </row>
     <row r="57" spans="10:17">
       <c r="J57" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K57">
-        <v>0.01108433734939759</v>
+        <v>0.02833753148614609</v>
       </c>
       <c r="L57">
-        <v>23</v>
+        <v>90</v>
       </c>
       <c r="M57">
-        <v>91</v>
+        <v>115</v>
       </c>
       <c r="N57">
-        <v>0.25</v>
+        <v>0.78</v>
       </c>
       <c r="O57">
-        <v>0.75</v>
+        <v>0.22</v>
       </c>
       <c r="P57" t="b">
         <v>1</v>
       </c>
       <c r="Q57">
-        <v>2052</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="58" spans="10:17">
@@ -2974,25 +2950,51 @@
         <v>38</v>
       </c>
       <c r="K58">
-        <v>0.008358408559010365</v>
+        <v>0.009592326139088728</v>
       </c>
       <c r="L58">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="M58">
-        <v>141</v>
+        <v>78</v>
       </c>
       <c r="N58">
-        <v>0.18</v>
+        <v>0.26</v>
       </c>
       <c r="O58">
-        <v>0.8200000000000001</v>
+        <v>0.74</v>
       </c>
       <c r="P58" t="b">
         <v>1</v>
       </c>
       <c r="Q58">
-        <v>2966</v>
+        <v>2065</v>
+      </c>
+    </row>
+    <row r="59" spans="10:17">
+      <c r="J59" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K59">
+        <v>0.007326007326007326</v>
+      </c>
+      <c r="L59">
+        <v>22</v>
+      </c>
+      <c r="M59">
+        <v>126</v>
+      </c>
+      <c r="N59">
+        <v>0.17</v>
+      </c>
+      <c r="O59">
+        <v>0.83</v>
+      </c>
+      <c r="P59" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q59">
+        <v>2981</v>
       </c>
     </row>
   </sheetData>
